--- a/Code/Results/Cases/Case_1_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2712500948586438</v>
+        <v>0.142437902037841</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2376277906980846</v>
+        <v>0.2436499207375107</v>
       </c>
       <c r="E2">
-        <v>0.1814245692121261</v>
+        <v>0.1795842642411571</v>
       </c>
       <c r="F2">
-        <v>0.6194850956995452</v>
+        <v>1.037516806086579</v>
       </c>
       <c r="G2">
-        <v>0.3254574511976855</v>
+        <v>0.4977741487897163</v>
       </c>
       <c r="H2">
-        <v>0.2658689891524233</v>
+        <v>0.6405293565296475</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1848126208073282</v>
+        <v>0.1779080579731058</v>
       </c>
       <c r="K2">
-        <v>1.924505189228114</v>
+        <v>0.6062153509819268</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.816534116587583</v>
+        <v>1.332010824900088</v>
       </c>
       <c r="O2">
-        <v>1.196183126057804</v>
+        <v>2.239954461524746</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2373537643841956</v>
+        <v>0.1329322490822022</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2116776199628987</v>
+        <v>0.2376561938734341</v>
       </c>
       <c r="E3">
-        <v>0.1617736376769301</v>
+        <v>0.1752894354209715</v>
       </c>
       <c r="F3">
-        <v>0.5816458233352719</v>
+        <v>1.035818188712852</v>
       </c>
       <c r="G3">
-        <v>0.3053585273037527</v>
+        <v>0.4973056651683194</v>
       </c>
       <c r="H3">
-        <v>0.2618654089536463</v>
+        <v>0.6439431398294246</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1648981432465746</v>
+        <v>0.1737421781387312</v>
       </c>
       <c r="K3">
-        <v>1.682173244190381</v>
+        <v>0.5302917244039236</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8341946820434885</v>
+        <v>1.34135563581652</v>
       </c>
       <c r="O3">
-        <v>1.144844053357176</v>
+        <v>2.245846444442208</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2166656638278681</v>
+        <v>0.1271636699005683</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1959018418474159</v>
+        <v>0.2340765145819859</v>
       </c>
       <c r="E4">
-        <v>0.1498734873125969</v>
+        <v>0.1727412937730257</v>
       </c>
       <c r="F4">
-        <v>0.5594889506532112</v>
+        <v>1.035359426712112</v>
       </c>
       <c r="G4">
-        <v>0.2937476492122357</v>
+        <v>0.4973646131627447</v>
       </c>
       <c r="H4">
-        <v>0.2598728863031781</v>
+        <v>0.6463244712575715</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.152880494704668</v>
+        <v>0.1712845774738625</v>
       </c>
       <c r="K4">
-        <v>1.533215575734744</v>
+        <v>0.4835337601548702</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8459976526718123</v>
+        <v>1.347579869274604</v>
       </c>
       <c r="O4">
-        <v>1.11583470765504</v>
+        <v>2.250786786596194</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2082636357463343</v>
+        <v>0.1248302004291304</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1895097766718408</v>
+        <v>0.2326431659262198</v>
       </c>
       <c r="E5">
-        <v>0.1450625844238864</v>
+        <v>0.1717253228349449</v>
       </c>
       <c r="F5">
-        <v>0.5507162995741908</v>
+        <v>1.035319460365407</v>
       </c>
       <c r="G5">
-        <v>0.2891892459014969</v>
+        <v>0.4974757318285015</v>
       </c>
       <c r="H5">
-        <v>0.2591733931816904</v>
+        <v>0.6473666664717541</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1480319620129862</v>
+        <v>0.1703083277189066</v>
       </c>
       <c r="K5">
-        <v>1.47246023808674</v>
+        <v>0.4644454815687027</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8510429589532507</v>
+        <v>1.350238794108506</v>
       </c>
       <c r="O5">
-        <v>1.104613288107686</v>
+        <v>2.253132587522842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2068701313759362</v>
+        <v>0.1244437785083647</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1884505111190151</v>
+        <v>0.2324066973731078</v>
       </c>
       <c r="E6">
-        <v>0.1442659743724803</v>
+        <v>0.1715579774382618</v>
       </c>
       <c r="F6">
-        <v>0.5492746919352598</v>
+        <v>1.035321703809629</v>
       </c>
       <c r="G6">
-        <v>0.2884424867754163</v>
+        <v>0.4974994417305254</v>
       </c>
       <c r="H6">
-        <v>0.259063904885501</v>
+        <v>0.6475440593136952</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1472296974310652</v>
+        <v>0.170147747647988</v>
       </c>
       <c r="K6">
-        <v>1.462368259107279</v>
+        <v>0.4612738709025734</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8518947892560575</v>
+        <v>1.350687710232982</v>
       </c>
       <c r="O6">
-        <v>1.102785323243296</v>
+        <v>2.25354219198698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2165522391122607</v>
+        <v>0.1271321297210335</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1958154914777879</v>
+        <v>0.2340570809259788</v>
       </c>
       <c r="E7">
-        <v>0.1498084539271041</v>
+        <v>0.1727275011827132</v>
       </c>
       <c r="F7">
-        <v>0.5593696196194458</v>
+        <v>1.035358292475621</v>
       </c>
       <c r="G7">
-        <v>0.293685485457658</v>
+        <v>0.4973657591737961</v>
       </c>
       <c r="H7">
-        <v>0.2598630032421312</v>
+        <v>0.6463382359477663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1528149134712251</v>
+        <v>0.171271309182643</v>
       </c>
       <c r="K7">
-        <v>1.532396441986037</v>
+        <v>0.483276464992656</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8460647492821707</v>
+        <v>1.347615232243264</v>
       </c>
       <c r="O7">
-        <v>1.115680982769859</v>
+        <v>2.250817076343935</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2595351325987707</v>
+        <v>0.1391463659018939</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2286455951576301</v>
+        <v>0.2415625019762757</v>
       </c>
       <c r="E8">
-        <v>0.1746126179749581</v>
+        <v>0.178084991875231</v>
       </c>
       <c r="F8">
-        <v>0.6062058700213342</v>
+        <v>1.036809918806831</v>
       </c>
       <c r="G8">
-        <v>0.3183694154730645</v>
+        <v>0.4975406423832638</v>
       </c>
       <c r="H8">
-        <v>0.2643890485809308</v>
+        <v>0.6416472560873103</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1779000494227319</v>
+        <v>0.176450868447624</v>
       </c>
       <c r="K8">
-        <v>1.840975555828379</v>
+        <v>0.5800668211767004</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8224208503843755</v>
+        <v>1.335132047242418</v>
       </c>
       <c r="O8">
-        <v>1.177940224504994</v>
+        <v>2.241711487854261</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.34494425773579</v>
+        <v>0.163238089964068</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2944210335174375</v>
+        <v>0.2570732138505889</v>
       </c>
       <c r="E9">
-        <v>0.2247186719487857</v>
+        <v>0.189294365655023</v>
       </c>
       <c r="F9">
-        <v>0.7072742890378549</v>
+        <v>1.044289874208246</v>
       </c>
       <c r="G9">
-        <v>0.3730623980315357</v>
+        <v>0.5006371510494745</v>
       </c>
       <c r="H9">
-        <v>0.277179676727215</v>
+        <v>0.6347095393731905</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.228951187341579</v>
+        <v>0.1874029710348992</v>
       </c>
       <c r="K9">
-        <v>2.445420559591525</v>
+        <v>0.7687082869792903</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.783936874638421</v>
+        <v>1.314505287635257</v>
       </c>
       <c r="O9">
-        <v>1.321483410696061</v>
+        <v>2.234353269250136</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.408575473376942</v>
+        <v>0.1812547692589561</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3438129749530674</v>
+        <v>0.2689471111230972</v>
       </c>
       <c r="E10">
-        <v>0.262649842672829</v>
+        <v>0.1979570000670918</v>
       </c>
       <c r="F10">
-        <v>0.7881546995693895</v>
+        <v>1.05260965034968</v>
       </c>
       <c r="G10">
-        <v>0.4178083346896528</v>
+        <v>0.5045967847211585</v>
       </c>
       <c r="H10">
-        <v>0.2892872036335348</v>
+        <v>0.6309885342564883</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2678794029197888</v>
+        <v>0.1959344659256317</v>
       </c>
       <c r="K10">
-        <v>2.890076047905609</v>
+        <v>0.9065407090829467</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7608601507203758</v>
+        <v>1.301689961491959</v>
       </c>
       <c r="O10">
-        <v>1.442248329067525</v>
+        <v>2.235354996549574</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4377606122030073</v>
+        <v>0.189518208776974</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3665654155855975</v>
+        <v>0.2744517020786503</v>
       </c>
       <c r="E11">
-        <v>0.280201838784528</v>
+        <v>0.2019903044413596</v>
       </c>
       <c r="F11">
-        <v>0.8266248149051165</v>
+        <v>1.057007869219277</v>
       </c>
       <c r="G11">
-        <v>0.4393275037288902</v>
+        <v>0.5067652787718657</v>
       </c>
       <c r="H11">
-        <v>0.2954601851066769</v>
+        <v>0.6295940947780281</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2859655520725539</v>
+        <v>0.1999211061769302</v>
       </c>
       <c r="K11">
-        <v>3.092723944731546</v>
+        <v>0.9690682674386153</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7515824882897064</v>
+        <v>1.296365913117739</v>
       </c>
       <c r="O11">
-        <v>1.501035980058305</v>
+        <v>2.237204068830522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4488505529225932</v>
+        <v>0.1926569009091139</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3752264319188896</v>
+        <v>0.27655085845835</v>
       </c>
       <c r="E12">
-        <v>0.2868956966231053</v>
+        <v>0.2035308824979509</v>
       </c>
       <c r="F12">
-        <v>0.8414545908761539</v>
+        <v>1.058761540920344</v>
       </c>
       <c r="G12">
-        <v>0.4476589241073299</v>
+        <v>0.507639324183927</v>
       </c>
       <c r="H12">
-        <v>0.2979001902415206</v>
+        <v>0.629108903668822</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.292874603753944</v>
+        <v>0.2014459168061933</v>
       </c>
       <c r="K12">
-        <v>3.169535554080255</v>
+        <v>0.9927197624367068</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7482529076209588</v>
+        <v>1.294422405923292</v>
       </c>
       <c r="O12">
-        <v>1.523897782249378</v>
+        <v>2.238104727082202</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4464603758388677</v>
+        <v>0.1919805079010075</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3733590461660725</v>
+        <v>0.2760981165514664</v>
       </c>
       <c r="E13">
-        <v>0.2854518743995982</v>
+        <v>0.2031985030742121</v>
       </c>
       <c r="F13">
-        <v>0.8382487359199615</v>
+        <v>1.058379936303453</v>
       </c>
       <c r="G13">
-        <v>0.4458562308080332</v>
+        <v>0.5074487296537882</v>
       </c>
       <c r="H13">
-        <v>0.2973700231410845</v>
+        <v>0.6292114929536012</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2913838387518268</v>
+        <v>0.2011168479750722</v>
       </c>
       <c r="K13">
-        <v>3.15298920979734</v>
+        <v>0.987627183986632</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7489616876033125</v>
+        <v>1.294837748286369</v>
       </c>
       <c r="O13">
-        <v>1.518946618446648</v>
+        <v>2.237901837554261</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4386722009962227</v>
+        <v>0.1897762415301969</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3672770315694862</v>
+        <v>0.2746241073730715</v>
       </c>
       <c r="E14">
-        <v>0.2807515711194029</v>
+        <v>0.2021167834942119</v>
       </c>
       <c r="F14">
-        <v>0.8278394950694121</v>
+        <v>1.057150378304854</v>
       </c>
       <c r="G14">
-        <v>0.4400091849715295</v>
+        <v>0.5068361267153705</v>
       </c>
       <c r="H14">
-        <v>0.2956588325211413</v>
+        <v>0.629553319190947</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2865327215927209</v>
+        <v>0.2000462496895494</v>
       </c>
       <c r="K14">
-        <v>3.099041695050829</v>
+        <v>0.9710146262027308</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7513048318767943</v>
+        <v>1.296204565420965</v>
       </c>
       <c r="O14">
-        <v>1.502904528737105</v>
+        <v>2.23727414861861</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.433906805036429</v>
+        <v>0.18842729662083</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3635576373403779</v>
+        <v>0.2737231428095726</v>
       </c>
       <c r="E15">
-        <v>0.2778788010459792</v>
+        <v>0.2014559229930626</v>
       </c>
       <c r="F15">
-        <v>0.8214982922931426</v>
+        <v>1.056408717965553</v>
       </c>
       <c r="G15">
-        <v>0.436451945564599</v>
+        <v>0.5064677789801948</v>
       </c>
       <c r="H15">
-        <v>0.2946242271173674</v>
+        <v>0.6297682772362521</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2835692976158413</v>
+        <v>0.1993924502014295</v>
       </c>
       <c r="K15">
-        <v>3.066007437960963</v>
+        <v>0.9608354825908805</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7527642467380886</v>
+        <v>1.297051230634075</v>
       </c>
       <c r="O15">
-        <v>1.493157878208763</v>
+        <v>2.236915778722505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4066732847622916</v>
+        <v>0.1807160757671937</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3423321256478857</v>
+        <v>0.2685894359366046</v>
       </c>
       <c r="E16">
-        <v>0.2615091395917659</v>
+        <v>0.1976952723765919</v>
       </c>
       <c r="F16">
-        <v>0.785676083985976</v>
+        <v>1.052334556669848</v>
       </c>
       <c r="G16">
-        <v>0.4164267057978464</v>
+        <v>0.5044624647632787</v>
       </c>
       <c r="H16">
-        <v>0.2888977395300998</v>
+        <v>0.6310856628154511</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2667055251891384</v>
+        <v>0.1956760522741945</v>
       </c>
       <c r="K16">
-        <v>2.876841668555159</v>
+        <v>0.9024507794972862</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7614917109257888</v>
+        <v>1.302048065881692</v>
       </c>
       <c r="O16">
-        <v>1.438487810437294</v>
+        <v>2.235262201307535</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3900302486591869</v>
+        <v>0.1760026476314209</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3293866560494365</v>
+        <v>0.2654663803781148</v>
       </c>
       <c r="E17">
-        <v>0.2515461088635149</v>
+        <v>0.195411912137935</v>
       </c>
       <c r="F17">
-        <v>0.7641442702689289</v>
+        <v>1.049992282897932</v>
       </c>
       <c r="G17">
-        <v>0.4044505058285779</v>
+        <v>0.5033263817142455</v>
       </c>
       <c r="H17">
-        <v>0.2855597827898322</v>
+        <v>0.6319702023585307</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2564609339683983</v>
+        <v>0.1934231921356542</v>
       </c>
       <c r="K17">
-        <v>2.760903416284407</v>
+        <v>0.8665882928403903</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.76716391897682</v>
+        <v>1.305242895831533</v>
       </c>
       <c r="O17">
-        <v>1.405967932232244</v>
+        <v>2.234604726920963</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.380479869189557</v>
+        <v>0.1732979801531798</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3219671998091798</v>
+        <v>0.263679793520339</v>
       </c>
       <c r="E18">
-        <v>0.245843291166878</v>
+        <v>0.1941073063700429</v>
       </c>
       <c r="F18">
-        <v>0.7519162846982823</v>
+        <v>1.048702819215492</v>
       </c>
       <c r="G18">
-        <v>0.3976707088404936</v>
+        <v>0.5027074984094924</v>
       </c>
       <c r="H18">
-        <v>0.2837020596510058</v>
+        <v>0.6325070423794585</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2506036706916746</v>
+        <v>0.192137349991043</v>
       </c>
       <c r="K18">
-        <v>2.694252527334555</v>
+        <v>0.8459449320058923</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7705407405001807</v>
+        <v>1.307128084440059</v>
       </c>
       <c r="O18">
-        <v>1.387622888126401</v>
+        <v>2.23435771155539</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3772499846637203</v>
+        <v>0.1723833269069956</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3194595117732888</v>
+        <v>0.2630765581622967</v>
       </c>
       <c r="E19">
-        <v>0.2439170294157691</v>
+        <v>0.1936670894198826</v>
       </c>
       <c r="F19">
-        <v>0.7478023736196064</v>
+        <v>1.048276149453358</v>
       </c>
       <c r="G19">
-        <v>0.3953933906089446</v>
+        <v>0.5025038888284996</v>
       </c>
       <c r="H19">
-        <v>0.2830835469332555</v>
+        <v>0.6326936304502766</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2486263654609076</v>
+        <v>0.1917036946801858</v>
       </c>
       <c r="K19">
-        <v>2.67169089754475</v>
+        <v>0.8389527051365349</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7717034653395345</v>
+        <v>1.307774557331541</v>
       </c>
       <c r="O19">
-        <v>1.381471955550268</v>
+        <v>2.2342965982225</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3917995981272782</v>
+        <v>0.1765037421617137</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3307619568060147</v>
+        <v>0.2657978308053828</v>
       </c>
       <c r="E20">
-        <v>0.2526037960380947</v>
+        <v>0.1956540774537459</v>
       </c>
       <c r="F20">
-        <v>0.7664200205055778</v>
+        <v>1.050235645440139</v>
       </c>
       <c r="G20">
-        <v>0.4057140465120028</v>
+        <v>0.5034437421454925</v>
       </c>
       <c r="H20">
-        <v>0.2859086307861531</v>
+        <v>0.6318731360948107</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.257547808102558</v>
+        <v>0.1936619840645193</v>
       </c>
       <c r="K20">
-        <v>2.773241612338609</v>
+        <v>0.8704076035878359</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7665482132283685</v>
+        <v>1.304897874512513</v>
       </c>
       <c r="O20">
-        <v>1.409392192208969</v>
+        <v>2.234661142372715</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4409587097486991</v>
+        <v>0.190423431643282</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3690622049225283</v>
+        <v>0.2750566620915009</v>
       </c>
       <c r="E21">
-        <v>0.2821308422714779</v>
+        <v>0.2024341516008548</v>
       </c>
       <c r="F21">
-        <v>0.8308896588798689</v>
+        <v>1.057509137099174</v>
       </c>
       <c r="G21">
-        <v>0.4417215228987885</v>
+        <v>0.5070146272008458</v>
       </c>
       <c r="H21">
-        <v>0.2961586145134447</v>
+        <v>0.6294517538203195</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2879559286532185</v>
+        <v>0.2003602992693629</v>
       </c>
       <c r="K21">
-        <v>3.114885234302989</v>
+        <v>0.9758948633121918</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7506115409688334</v>
+        <v>1.29580112889245</v>
       </c>
       <c r="O21">
-        <v>1.507599805147976</v>
+        <v>2.237453075098813</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4733113796315962</v>
+        <v>0.1995760699531957</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3943590936432884</v>
+        <v>0.2811933879281128</v>
       </c>
       <c r="E22">
-        <v>0.3017065236012186</v>
+        <v>0.2069425406933121</v>
       </c>
       <c r="F22">
-        <v>0.8745619564641771</v>
+        <v>1.062776629165512</v>
       </c>
       <c r="G22">
-        <v>0.4663264780919434</v>
+        <v>0.5096566884396054</v>
       </c>
       <c r="H22">
-        <v>0.30345809065102</v>
+        <v>0.6281190026070362</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3081834486803388</v>
+        <v>0.2048263640222814</v>
       </c>
       <c r="K22">
-        <v>3.338606395364025</v>
+        <v>1.044682720650712</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7412707294758363</v>
+        <v>1.290278959232197</v>
       </c>
       <c r="O22">
-        <v>1.575306330914913</v>
+        <v>2.240446207419097</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4560223143664928</v>
+        <v>0.1946861421527473</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.380831864225371</v>
+        <v>0.2779103201489193</v>
       </c>
       <c r="E23">
-        <v>0.2912315703297708</v>
+        <v>0.2045292852040603</v>
       </c>
       <c r="F23">
-        <v>0.8511052998405262</v>
+        <v>1.059918272957816</v>
       </c>
       <c r="G23">
-        <v>0.4530909788958439</v>
+        <v>0.5082183381726537</v>
       </c>
       <c r="H23">
-        <v>0.2995049180054963</v>
+        <v>0.62880747602496</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2973531767907076</v>
+        <v>0.2024346697284614</v>
       </c>
       <c r="K23">
-        <v>3.219155229076989</v>
+        <v>1.00798392891096</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7461549157556462</v>
+        <v>1.293187574042641</v>
       </c>
       <c r="O23">
-        <v>1.538831659876905</v>
+        <v>2.238741775180927</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3909996196892109</v>
+        <v>0.1762771812826429</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3301401118119287</v>
+        <v>0.2656479543367283</v>
       </c>
       <c r="E24">
-        <v>0.2521255379501426</v>
+        <v>0.1955445691909432</v>
       </c>
       <c r="F24">
-        <v>0.7653906852328305</v>
+        <v>1.050125443241001</v>
       </c>
       <c r="G24">
-        <v>0.4051424723599695</v>
+        <v>0.5033905767642466</v>
       </c>
       <c r="H24">
-        <v>0.2857507261388434</v>
+        <v>0.6319169315762423</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2570563315555603</v>
+        <v>0.1935539970854308</v>
       </c>
       <c r="K24">
-        <v>2.767663504299207</v>
+        <v>0.8686809726421245</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7668262137429309</v>
+        <v>1.305053707759541</v>
       </c>
       <c r="O24">
-        <v>1.407842994251922</v>
+        <v>2.234635228972536</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3216990344447765</v>
+        <v>0.1566645008407477</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.276456096452435</v>
+        <v>0.2527928189288247</v>
       </c>
       <c r="E25">
-        <v>0.2109843774591411</v>
+        <v>0.186186806094419</v>
       </c>
       <c r="F25">
-        <v>0.6788452653376424</v>
+        <v>1.041770351531483</v>
       </c>
       <c r="G25">
-        <v>0.3575205982918703</v>
+        <v>0.4995040538771889</v>
       </c>
       <c r="H25">
-        <v>0.2732681058446786</v>
+        <v>0.6363445390637708</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2149128276212195</v>
+        <v>0.1843549906285773</v>
       </c>
       <c r="K25">
-        <v>2.281877572791444</v>
+        <v>0.7178058625325718</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7934648250817631</v>
+        <v>1.319673914154784</v>
       </c>
       <c r="O25">
-        <v>1.280132692719263</v>
+        <v>2.235219160667413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.142437902037841</v>
+        <v>0.2712500948586154</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2436499207375107</v>
+        <v>0.2376277906980846</v>
       </c>
       <c r="E2">
-        <v>0.1795842642411571</v>
+        <v>0.1814245692121261</v>
       </c>
       <c r="F2">
-        <v>1.037516806086579</v>
+        <v>0.6194850956995452</v>
       </c>
       <c r="G2">
-        <v>0.4977741487897163</v>
+        <v>0.3254574511976642</v>
       </c>
       <c r="H2">
-        <v>0.6405293565296475</v>
+        <v>0.2658689891525299</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1779080579731058</v>
+        <v>0.1848126208073211</v>
       </c>
       <c r="K2">
-        <v>0.6062153509819268</v>
+        <v>1.924505189228057</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.332010824900088</v>
+        <v>0.8165341165875688</v>
       </c>
       <c r="O2">
-        <v>2.239954461524746</v>
+        <v>1.196183126057718</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329322490822022</v>
+        <v>0.2373537643840677</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2376561938734341</v>
+        <v>0.2116776199626571</v>
       </c>
       <c r="E3">
-        <v>0.1752894354209715</v>
+        <v>0.1617736376769301</v>
       </c>
       <c r="F3">
-        <v>1.035818188712852</v>
+        <v>0.5816458233352861</v>
       </c>
       <c r="G3">
-        <v>0.4973056651683194</v>
+        <v>0.3053585273036958</v>
       </c>
       <c r="H3">
-        <v>0.6439431398294246</v>
+        <v>0.2618654089536392</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1737421781387312</v>
+        <v>0.1648981432465462</v>
       </c>
       <c r="K3">
-        <v>0.5302917244039236</v>
+        <v>1.682173244190381</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.34135563581652</v>
+        <v>0.8341946820434885</v>
       </c>
       <c r="O3">
-        <v>2.245846444442208</v>
+        <v>1.144844053357176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271636699005683</v>
+        <v>0.2166656638278681</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2340765145819859</v>
+        <v>0.1959018418475296</v>
       </c>
       <c r="E4">
-        <v>0.1727412937730257</v>
+        <v>0.1498734873125898</v>
       </c>
       <c r="F4">
-        <v>1.035359426712112</v>
+        <v>0.5594889506532041</v>
       </c>
       <c r="G4">
-        <v>0.4973646131627447</v>
+        <v>0.2937476492123494</v>
       </c>
       <c r="H4">
-        <v>0.6463244712575715</v>
+        <v>0.2598728863031852</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1712845774738625</v>
+        <v>0.1528804947047107</v>
       </c>
       <c r="K4">
-        <v>0.4835337601548702</v>
+        <v>1.533215575734857</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.347579869274604</v>
+        <v>0.8459976526718265</v>
       </c>
       <c r="O4">
-        <v>2.250786786596194</v>
+        <v>1.115834707655011</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248302004291304</v>
+        <v>0.2082636357463201</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2326431659262198</v>
+        <v>0.1895097766716987</v>
       </c>
       <c r="E5">
-        <v>0.1717253228349449</v>
+        <v>0.1450625844238722</v>
       </c>
       <c r="F5">
-        <v>1.035319460365407</v>
+        <v>0.550716299574205</v>
       </c>
       <c r="G5">
-        <v>0.4974757318285015</v>
+        <v>0.2891892459014969</v>
       </c>
       <c r="H5">
-        <v>0.6473666664717541</v>
+        <v>0.2591733931816975</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1703083277189066</v>
+        <v>0.1480319620129507</v>
       </c>
       <c r="K5">
-        <v>0.4644454815687027</v>
+        <v>1.472460238086654</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.350238794108506</v>
+        <v>0.8510429589532365</v>
       </c>
       <c r="O5">
-        <v>2.253132587522842</v>
+        <v>1.104613288107572</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244437785083647</v>
+        <v>0.2068701313760357</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2324066973731078</v>
+        <v>0.1884505111190862</v>
       </c>
       <c r="E6">
-        <v>0.1715579774382618</v>
+        <v>0.1442659743724839</v>
       </c>
       <c r="F6">
-        <v>1.035321703809629</v>
+        <v>0.5492746919352527</v>
       </c>
       <c r="G6">
-        <v>0.4974994417305254</v>
+        <v>0.2884424867753381</v>
       </c>
       <c r="H6">
-        <v>0.6475440593136952</v>
+        <v>0.2590639048853802</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.170147747647988</v>
+        <v>0.1472296974310012</v>
       </c>
       <c r="K6">
-        <v>0.4612738709025734</v>
+        <v>1.462368259107222</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.350687710232982</v>
+        <v>0.8518947892560504</v>
       </c>
       <c r="O6">
-        <v>2.25354219198698</v>
+        <v>1.102785323243168</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271321297210335</v>
+        <v>0.2165522391121328</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2340570809259788</v>
+        <v>0.19581549147766</v>
       </c>
       <c r="E7">
-        <v>0.1727275011827132</v>
+        <v>0.1498084539271183</v>
       </c>
       <c r="F7">
-        <v>1.035358292475621</v>
+        <v>0.5593696196194671</v>
       </c>
       <c r="G7">
-        <v>0.4973657591737961</v>
+        <v>0.2936854854576083</v>
       </c>
       <c r="H7">
-        <v>0.6463382359477663</v>
+        <v>0.2598630032420175</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.171271309182643</v>
+        <v>0.1528149134712251</v>
       </c>
       <c r="K7">
-        <v>0.483276464992656</v>
+        <v>1.532396441986037</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.347615232243264</v>
+        <v>0.8460647492821849</v>
       </c>
       <c r="O7">
-        <v>2.250817076343935</v>
+        <v>1.115680982769859</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391463659018939</v>
+        <v>0.2595351325989981</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2415625019762757</v>
+        <v>0.2286455951576016</v>
       </c>
       <c r="E8">
-        <v>0.178084991875231</v>
+        <v>0.1746126179749439</v>
       </c>
       <c r="F8">
-        <v>1.036809918806831</v>
+        <v>0.6062058700213342</v>
       </c>
       <c r="G8">
-        <v>0.4975406423832638</v>
+        <v>0.3183694154729508</v>
       </c>
       <c r="H8">
-        <v>0.6416472560873103</v>
+        <v>0.2643890485810445</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.176450868447624</v>
+        <v>0.1779000494228598</v>
       </c>
       <c r="K8">
-        <v>0.5800668211767004</v>
+        <v>1.840975555828351</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.335132047242418</v>
+        <v>0.8224208503843755</v>
       </c>
       <c r="O8">
-        <v>2.241711487854261</v>
+        <v>1.177940224504965</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.163238089964068</v>
+        <v>0.34494425773579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2570732138505889</v>
+        <v>0.2944210335173523</v>
       </c>
       <c r="E9">
-        <v>0.189294365655023</v>
+        <v>0.2247186719487928</v>
       </c>
       <c r="F9">
-        <v>1.044289874208246</v>
+        <v>0.7072742890378692</v>
       </c>
       <c r="G9">
-        <v>0.5006371510494745</v>
+        <v>0.3730623980315499</v>
       </c>
       <c r="H9">
-        <v>0.6347095393731905</v>
+        <v>0.277179676727215</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1874029710348992</v>
+        <v>0.228951187341579</v>
       </c>
       <c r="K9">
-        <v>0.7687082869792903</v>
+        <v>2.445420559591639</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.314505287635257</v>
+        <v>0.783936874638421</v>
       </c>
       <c r="O9">
-        <v>2.234353269250136</v>
+        <v>1.321483410696032</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1812547692589561</v>
+        <v>0.4085754733768283</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2689471111230972</v>
+        <v>0.3438129749529679</v>
       </c>
       <c r="E10">
-        <v>0.1979570000670918</v>
+        <v>0.262649842672829</v>
       </c>
       <c r="F10">
-        <v>1.05260965034968</v>
+        <v>0.7881546995693753</v>
       </c>
       <c r="G10">
-        <v>0.5045967847211585</v>
+        <v>0.417808334689667</v>
       </c>
       <c r="H10">
-        <v>0.6309885342564883</v>
+        <v>0.289287203633549</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1959344659256317</v>
+        <v>0.2678794029197888</v>
       </c>
       <c r="K10">
-        <v>0.9065407090829467</v>
+        <v>2.890076047905609</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.301689961491959</v>
+        <v>0.7608601507203758</v>
       </c>
       <c r="O10">
-        <v>2.235354996549574</v>
+        <v>1.442248329067496</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.189518208776974</v>
+        <v>0.4377606122030073</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2744517020786503</v>
+        <v>0.3665654155853559</v>
       </c>
       <c r="E11">
-        <v>0.2019903044413596</v>
+        <v>0.2802018387845351</v>
       </c>
       <c r="F11">
-        <v>1.057007869219277</v>
+        <v>0.8266248149051023</v>
       </c>
       <c r="G11">
-        <v>0.5067652787718657</v>
+        <v>0.4393275037288475</v>
       </c>
       <c r="H11">
-        <v>0.6295940947780281</v>
+        <v>0.2954601851066911</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1999211061769302</v>
+        <v>0.2859655520724687</v>
       </c>
       <c r="K11">
-        <v>0.9690682674386153</v>
+        <v>3.092723944731517</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.296365913117739</v>
+        <v>0.7515824882897064</v>
       </c>
       <c r="O11">
-        <v>2.237204068830522</v>
+        <v>1.501035980058219</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1926569009091139</v>
+        <v>0.4488505529224938</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.27655085845835</v>
+        <v>0.3752264319188896</v>
       </c>
       <c r="E12">
-        <v>0.2035308824979509</v>
+        <v>0.2868956966231124</v>
       </c>
       <c r="F12">
-        <v>1.058761540920344</v>
+        <v>0.8414545908761397</v>
       </c>
       <c r="G12">
-        <v>0.507639324183927</v>
+        <v>0.447658924107273</v>
       </c>
       <c r="H12">
-        <v>0.629108903668822</v>
+        <v>0.2979001902415206</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2014459168061933</v>
+        <v>0.2928746037538872</v>
       </c>
       <c r="K12">
-        <v>0.9927197624367068</v>
+        <v>3.169535554080255</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.294422405923292</v>
+        <v>0.7482529076210156</v>
       </c>
       <c r="O12">
-        <v>2.238104727082202</v>
+        <v>1.523897782249378</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1919805079010075</v>
+        <v>0.4464603758388677</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2760981165514664</v>
+        <v>0.3733590461660867</v>
       </c>
       <c r="E13">
-        <v>0.2031985030742121</v>
+        <v>0.2854518743996195</v>
       </c>
       <c r="F13">
-        <v>1.058379936303453</v>
+        <v>0.8382487359199615</v>
       </c>
       <c r="G13">
-        <v>0.5074487296537882</v>
+        <v>0.4458562308080189</v>
       </c>
       <c r="H13">
-        <v>0.6292114929536012</v>
+        <v>0.2973700231410703</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2011168479750722</v>
+        <v>0.29138383875177</v>
       </c>
       <c r="K13">
-        <v>0.987627183986632</v>
+        <v>3.152989209797369</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.294837748286369</v>
+        <v>0.7489616876033054</v>
       </c>
       <c r="O13">
-        <v>2.237901837554261</v>
+        <v>1.518946618446648</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1897762415301969</v>
+        <v>0.4386722009962085</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2746241073730715</v>
+        <v>0.3672770315695573</v>
       </c>
       <c r="E14">
-        <v>0.2021167834942119</v>
+        <v>0.2807515711194455</v>
       </c>
       <c r="F14">
-        <v>1.057150378304854</v>
+        <v>0.8278394950694121</v>
       </c>
       <c r="G14">
-        <v>0.5068361267153705</v>
+        <v>0.4400091849715437</v>
       </c>
       <c r="H14">
-        <v>0.629553319190947</v>
+        <v>0.2956588325211413</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2000462496895494</v>
+        <v>0.2865327215926925</v>
       </c>
       <c r="K14">
-        <v>0.9710146262027308</v>
+        <v>3.099041695050801</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.296204565420965</v>
+        <v>0.7513048318767943</v>
       </c>
       <c r="O14">
-        <v>2.23727414861861</v>
+        <v>1.502904528737048</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.18842729662083</v>
+        <v>0.433906805036429</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2737231428095726</v>
+        <v>0.3635576373404348</v>
       </c>
       <c r="E15">
-        <v>0.2014559229930626</v>
+        <v>0.2778788010460005</v>
       </c>
       <c r="F15">
-        <v>1.056408717965553</v>
+        <v>0.8214982922931569</v>
       </c>
       <c r="G15">
-        <v>0.5064677789801948</v>
+        <v>0.4364519455645564</v>
       </c>
       <c r="H15">
-        <v>0.6297682772362521</v>
+        <v>0.2946242271173674</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1993924502014295</v>
+        <v>0.2835692976157702</v>
       </c>
       <c r="K15">
-        <v>0.9608354825908805</v>
+        <v>3.066007437960963</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.297051230634075</v>
+        <v>0.7527642467381455</v>
       </c>
       <c r="O15">
-        <v>2.236915778722505</v>
+        <v>1.493157878208763</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1807160757671937</v>
+        <v>0.4066732847623058</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2685894359366046</v>
+        <v>0.3423321256479568</v>
       </c>
       <c r="E16">
-        <v>0.1976952723765919</v>
+        <v>0.2615091395917872</v>
       </c>
       <c r="F16">
-        <v>1.052334556669848</v>
+        <v>0.7856760839859902</v>
       </c>
       <c r="G16">
-        <v>0.5044624647632787</v>
+        <v>0.416426705797889</v>
       </c>
       <c r="H16">
-        <v>0.6310856628154511</v>
+        <v>0.2888977395300856</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1956760522741945</v>
+        <v>0.2667055251891668</v>
       </c>
       <c r="K16">
-        <v>0.9024507794972862</v>
+        <v>2.876841668555187</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.302048065881692</v>
+        <v>0.7614917109257178</v>
       </c>
       <c r="O16">
-        <v>2.235262201307535</v>
+        <v>1.438487810437294</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1760026476314209</v>
+        <v>0.3900302486592011</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2654663803781148</v>
+        <v>0.3293866560494081</v>
       </c>
       <c r="E17">
-        <v>0.195411912137935</v>
+        <v>0.2515461088635078</v>
       </c>
       <c r="F17">
-        <v>1.049992282897932</v>
+        <v>0.7641442702689147</v>
       </c>
       <c r="G17">
-        <v>0.5033263817142455</v>
+        <v>0.4044505058286347</v>
       </c>
       <c r="H17">
-        <v>0.6319702023585307</v>
+        <v>0.2855597827899317</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1934231921356542</v>
+        <v>0.2564609339683273</v>
       </c>
       <c r="K17">
-        <v>0.8665882928403903</v>
+        <v>2.760903416284435</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.305242895831533</v>
+        <v>0.76716391897682</v>
       </c>
       <c r="O17">
-        <v>2.234604726920963</v>
+        <v>1.405967932232215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1732979801531798</v>
+        <v>0.380479869189557</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.263679793520339</v>
+        <v>0.3219671998093077</v>
       </c>
       <c r="E18">
-        <v>0.1941073063700429</v>
+        <v>0.2458432911668922</v>
       </c>
       <c r="F18">
-        <v>1.048702819215492</v>
+        <v>0.7519162846982965</v>
       </c>
       <c r="G18">
-        <v>0.5027074984094924</v>
+        <v>0.3976707088404368</v>
       </c>
       <c r="H18">
-        <v>0.6325070423794585</v>
+        <v>0.2837020596511053</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.192137349991043</v>
+        <v>0.2506036706916746</v>
       </c>
       <c r="K18">
-        <v>0.8459449320058923</v>
+        <v>2.694252527334527</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.307128084440059</v>
+        <v>0.7705407405001807</v>
       </c>
       <c r="O18">
-        <v>2.23435771155539</v>
+        <v>1.387622888126344</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1723833269069956</v>
+        <v>0.3772499846637345</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2630765581622967</v>
+        <v>0.3194595117732746</v>
       </c>
       <c r="E19">
-        <v>0.1936670894198826</v>
+        <v>0.2439170294157762</v>
       </c>
       <c r="F19">
-        <v>1.048276149453358</v>
+        <v>0.7478023736196064</v>
       </c>
       <c r="G19">
-        <v>0.5025038888284996</v>
+        <v>0.3953933906090157</v>
       </c>
       <c r="H19">
-        <v>0.6326936304502766</v>
+        <v>0.2830835469331419</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1917036946801858</v>
+        <v>0.2486263654608507</v>
       </c>
       <c r="K19">
-        <v>0.8389527051365349</v>
+        <v>2.67169089754475</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.307774557331541</v>
+        <v>0.7717034653395345</v>
       </c>
       <c r="O19">
-        <v>2.2342965982225</v>
+        <v>1.381471955550239</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1765037421617137</v>
+        <v>0.3917995981271645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2657978308053828</v>
+        <v>0.3307619568061</v>
       </c>
       <c r="E20">
-        <v>0.1956540774537459</v>
+        <v>0.2526037960380947</v>
       </c>
       <c r="F20">
-        <v>1.050235645440139</v>
+        <v>0.7664200205055778</v>
       </c>
       <c r="G20">
-        <v>0.5034437421454925</v>
+        <v>0.4057140465120455</v>
       </c>
       <c r="H20">
-        <v>0.6318731360948107</v>
+        <v>0.2859086307861531</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1936619840645193</v>
+        <v>0.2575478081027001</v>
       </c>
       <c r="K20">
-        <v>0.8704076035878359</v>
+        <v>2.773241612338722</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.304897874512513</v>
+        <v>0.7665482132283756</v>
       </c>
       <c r="O20">
-        <v>2.234661142372715</v>
+        <v>1.409392192209026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.190423431643282</v>
+        <v>0.440958709748827</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2750566620915009</v>
+        <v>0.3690622049225993</v>
       </c>
       <c r="E21">
-        <v>0.2024341516008548</v>
+        <v>0.2821308422715134</v>
       </c>
       <c r="F21">
-        <v>1.057509137099174</v>
+        <v>0.8308896588798831</v>
       </c>
       <c r="G21">
-        <v>0.5070146272008458</v>
+        <v>0.4417215228988169</v>
       </c>
       <c r="H21">
-        <v>0.6294517538203195</v>
+        <v>0.2961586145134163</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2003602992693629</v>
+        <v>0.2879559286533038</v>
       </c>
       <c r="K21">
-        <v>0.9758948633121918</v>
+        <v>3.114885234302932</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.29580112889245</v>
+        <v>0.7506115409688405</v>
       </c>
       <c r="O21">
-        <v>2.237453075098813</v>
+        <v>1.50759980514789</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1995760699531957</v>
+        <v>0.473311379631383</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2811933879281128</v>
+        <v>0.3943590936431747</v>
       </c>
       <c r="E22">
-        <v>0.2069425406933121</v>
+        <v>0.3017065236012186</v>
       </c>
       <c r="F22">
-        <v>1.062776629165512</v>
+        <v>0.8745619564641629</v>
       </c>
       <c r="G22">
-        <v>0.5096566884396054</v>
+        <v>0.4663264780920002</v>
       </c>
       <c r="H22">
-        <v>0.6281190026070362</v>
+        <v>0.3034580906511337</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2048263640222814</v>
+        <v>0.3081834486803388</v>
       </c>
       <c r="K22">
-        <v>1.044682720650712</v>
+        <v>3.338606395363911</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.290278959232197</v>
+        <v>0.741270729475815</v>
       </c>
       <c r="O22">
-        <v>2.240446207419097</v>
+        <v>1.575306330914941</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1946861421527473</v>
+        <v>0.4560223143663649</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2779103201489193</v>
+        <v>0.3808318642253141</v>
       </c>
       <c r="E23">
-        <v>0.2045292852040603</v>
+        <v>0.2912315703297779</v>
       </c>
       <c r="F23">
-        <v>1.059918272957816</v>
+        <v>0.8511052998405404</v>
       </c>
       <c r="G23">
-        <v>0.5082183381726537</v>
+        <v>0.4530909788959576</v>
       </c>
       <c r="H23">
-        <v>0.62880747602496</v>
+        <v>0.2995049180054821</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2024346697284614</v>
+        <v>0.2973531767907787</v>
       </c>
       <c r="K23">
-        <v>1.00798392891096</v>
+        <v>3.219155229076989</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.293187574042641</v>
+        <v>0.7461549157556036</v>
       </c>
       <c r="O23">
-        <v>2.238741775180927</v>
+        <v>1.538831659876905</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1762771812826429</v>
+        <v>0.3909996196892109</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2656479543367283</v>
+        <v>0.3301401118119429</v>
       </c>
       <c r="E24">
-        <v>0.1955445691909432</v>
+        <v>0.2521255379501426</v>
       </c>
       <c r="F24">
-        <v>1.050125443241001</v>
+        <v>0.7653906852328305</v>
       </c>
       <c r="G24">
-        <v>0.5033905767642466</v>
+        <v>0.4051424723599695</v>
       </c>
       <c r="H24">
-        <v>0.6319169315762423</v>
+        <v>0.2857507261388434</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1935539970854308</v>
+        <v>0.2570563315555461</v>
       </c>
       <c r="K24">
-        <v>0.8686809726421245</v>
+        <v>2.767663504299207</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.305053707759541</v>
+        <v>0.7668262137429878</v>
       </c>
       <c r="O24">
-        <v>2.234635228972536</v>
+        <v>1.407842994251922</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1566645008407477</v>
+        <v>0.3216990344449044</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2527928189288247</v>
+        <v>0.2764560964525486</v>
       </c>
       <c r="E25">
-        <v>0.186186806094419</v>
+        <v>0.2109843774591482</v>
       </c>
       <c r="F25">
-        <v>1.041770351531483</v>
+        <v>0.6788452653376353</v>
       </c>
       <c r="G25">
-        <v>0.4995040538771889</v>
+        <v>0.3575205982918703</v>
       </c>
       <c r="H25">
-        <v>0.6363445390637708</v>
+        <v>0.2732681058446786</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1843549906285773</v>
+        <v>0.2149128276211059</v>
       </c>
       <c r="K25">
-        <v>0.7178058625325718</v>
+        <v>2.281877572791501</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.319673914154784</v>
+        <v>0.7934648250817418</v>
       </c>
       <c r="O25">
-        <v>2.235219160667413</v>
+        <v>1.280132692719263</v>
       </c>
     </row>
   </sheetData>
